--- a/vacaciones-backend/empleados.xlsx
+++ b/vacaciones-backend/empleados.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erick Tejada\Desktop\CalculoPermisosDGA\vacaciones-backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EB5BD020-9EDC-4F73-9720-4C7BF3C2549C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5684E2CE-3B8B-4960-9841-37976C0C404B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11295" xr2:uid="{684B12D7-8FD0-400A-BB00-4A9E8E65DD90}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{684B12D7-8FD0-400A-BB00-4A9E8E65DD90}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t xml:space="preserve">Código </t>
   </si>
@@ -129,6 +129,12 @@
   </si>
   <si>
     <t>001-1796323-1</t>
+  </si>
+  <si>
+    <t>ERICK JOEL TEJADA MEJIA</t>
+  </si>
+  <si>
+    <t>402-0074990-7</t>
   </si>
 </sst>
 </file>
@@ -177,7 +183,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -241,11 +247,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -270,6 +298,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -605,10 +642,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB0B85F2-343D-4211-B027-87367DCEAC62}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -825,6 +862,20 @@
         <v>30</v>
       </c>
     </row>
+    <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="9">
+        <v>15</v>
+      </c>
+      <c r="B16" s="10">
+        <v>71122</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
